--- a/dist/status1.xlsx
+++ b/dist/status1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brock\Desktop\Mercedes Automation\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09892CE-2853-41E0-87D3-CE99C6ACF1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496702D8-F9B5-4F7C-9ED1-1299D5055D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="1752" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,7 +361,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
